--- a/examples/test.xlsx
+++ b/examples/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\git\CVE_Checker\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2301B75-5D0A-482B-9058-E98B33F96E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D42BD9-EC76-488A-AB72-0D6C8DFEC6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39360" yWindow="960" windowWidth="43200" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{73DEA2A2-E763-4CA4-BBC2-90D843D478F4}" name="Name"/>
     <tableColumn id="2" xr3:uid="{0EC87979-0955-464E-B081-1AC7525DA753}" name="Date"/>
-    <tableColumn id="3" xr3:uid="{98693043-0B33-4509-B8DA-22EA1646A22E}" name="Found Items"/>
-    <tableColumn id="4" xr3:uid="{AE0098C9-2A47-4584-81F9-7A70FBF61018}" name="Highest Severity"/>
+    <tableColumn id="3" xr3:uid="{98693043-0B33-4509-B8DA-22EA1646A22E}" name="Highest Severity"/>
+    <tableColumn id="4" xr3:uid="{AE0098C9-2A47-4584-81F9-7A70FBF61018}" name="Found Items"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -380,13 +380,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -398,10 +398,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
